--- a/ONCHO/Impact Assessments/Benin/bj_oncho_prestop_2_participants.xlsx
+++ b/ONCHO/Impact Assessments/Benin/bj_oncho_prestop_2_participants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\Impact Assessments\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ED45C1-131E-4F4F-8D65-9AC02538C092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F073A922-124B-482A-8088-A42A506FB3B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -308,9 +308,6 @@
     <t>read_only</t>
   </si>
   <si>
-    <t>bj_oncho_prestop_2_participants</t>
-  </si>
-  <si>
     <t>p_region</t>
   </si>
   <si>
@@ -344,13 +341,16 @@
     <t>French</t>
   </si>
   <si>
-    <t>Benin ONCHO Pre stop - 2. Formulaire Participants</t>
-  </si>
-  <si>
     <t>Le code doit être un nombre à deux chiffres entre 9 et 99</t>
   </si>
   <si>
     <t>regex(.,'^[0-9]{2}$') and . &gt; 9 and . &lt; 1000</t>
+  </si>
+  <si>
+    <t>bj_oncho_prestop_2_participants_v2</t>
+  </si>
+  <si>
+    <t>Benin ONCHO Pre stop TDM - 2. Formulaire Participants V2</t>
   </si>
 </sst>
 </file>
@@ -824,7 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -900,10 +900,10 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -918,10 +918,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
@@ -941,7 +941,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="12"/>
@@ -960,7 +960,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>51</v>
@@ -982,10 +982,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="12"/>
@@ -1058,14 +1058,14 @@
         <v>55</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>71</v>
@@ -1082,10 +1082,10 @@
         <v>64</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
@@ -1522,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1549,16 +1549,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>20201130</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
